--- a/customDiceOutcomes.xlsx
+++ b/customDiceOutcomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thias\Documents\GitHub\wildmagic-roller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2AEB63-9E3D-4322-810C-E3E35B5F1283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D82636-8A2A-4A6A-837E-B13F769DAC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diceOutcomes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="47">
   <si>
     <t>Dierolls</t>
   </si>
@@ -103,18 +103,12 @@
     <t>(The outcome-, and GoTo-cells are merged for visual reasons, but they are 'really' placed in the same row as their min-cell.)</t>
   </si>
   <si>
-    <t>Maximum number of rolls, without user input:</t>
-  </si>
-  <si>
     <t>Setting</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Except</t>
-  </si>
-  <si>
     <t>Table 3</t>
   </si>
   <si>
@@ -161,6 +155,24 @@
   </si>
   <si>
     <t>0, 1-10</t>
+  </si>
+  <si>
+    <t>5, 6, 8-9</t>
+  </si>
+  <si>
+    <t>GoTo Ignore</t>
+  </si>
+  <si>
+    <t>GoTo x times</t>
+  </si>
+  <si>
+    <t>DM Decides?</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Maximum number of rolls, without user input (Program might be caught in a loop):</t>
   </si>
 </sst>
 </file>
@@ -521,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -781,6 +793,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -826,9 +862,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -839,17 +874,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,12 +890,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,6 +901,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -885,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,12 +940,6 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -924,12 +949,36 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1291,992 +1340,1080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="7" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="16"/>
+      <c r="I4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="P4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>11</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="P5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>20</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="P6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>10</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="16"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>21</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="P8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>11</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+    </row>
+    <row r="9" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="I9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="P9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>20</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+    </row>
+    <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="16"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>31</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="P11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>21</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="19"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+    </row>
+    <row r="12" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="I12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="28"/>
+      <c r="P12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>39</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+    </row>
+    <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="16"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="28"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>41</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28"/>
+      <c r="P14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>40</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="19"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>50</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="I15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
+      <c r="P15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>40</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+    </row>
+    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="16"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="I18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>61</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>70</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <v>71</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>80</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>81</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>90</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>91</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>100</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E33" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10">
+        <v>11</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="11">
+        <v>20</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D42" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3">
+        <v>8</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B45" s="10">
+        <v>9</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="11">
+        <v>53</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D49" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>10</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="15"/>
-      <c r="G4" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="N4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="B51" s="3">
+        <v>8</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="10">
+        <v>9</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="11">
+        <v>53</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="C57" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="D57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="E57" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
-        <v>11</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
-      <c r="N5" s="2" t="s">
+      <c r="B58" s="3">
         <v>3</v>
       </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C58" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
-        <v>20</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="27"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="N6" s="2" t="s">
+      <c r="B59" s="3">
+        <v>8</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="10">
+        <v>9</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="4">
-        <v>10</v>
-      </c>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="15"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13">
-        <v>21</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="N8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="11">
-        <v>11</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="26"/>
-    </row>
-    <row r="9" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13">
-        <v>30</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="27"/>
-      <c r="G9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="N9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="12">
-        <v>20</v>
-      </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="27"/>
-    </row>
-    <row r="10" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="15"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="15"/>
-    </row>
-    <row r="11" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="13">
-        <v>31</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="N11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="13">
-        <v>21</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="26"/>
-    </row>
-    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="13">
-        <v>40</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="27"/>
-      <c r="G12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="N12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="13">
-        <v>30</v>
-      </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="13">
-        <v>41</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-      <c r="N14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="13">
-        <v>31</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="13">
-        <v>50</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="27"/>
-      <c r="G15" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="N15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="13">
-        <v>40</v>
-      </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="27"/>
-    </row>
-    <row r="16" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="15"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="44"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="13">
-        <v>51</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="13">
-        <v>60</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="27"/>
-      <c r="G18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="13">
-        <v>61</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="13">
-        <v>70</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="13">
-        <v>71</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="26"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="13">
-        <v>80</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="13">
-        <v>81</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="13">
-        <v>90</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="13">
-        <v>91</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="13">
-        <v>100</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="16"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="4">
-        <v>5</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4">
-        <v>10</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="11">
-        <v>11</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="12">
-        <v>20</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="27"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="4">
-        <v>3</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="4">
-        <v>8</v>
-      </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="27"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="11">
-        <v>9</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="12">
+      <c r="B62" s="11">
         <v>53</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="4">
-        <v>3</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="26"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="4">
-        <v>8</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="27"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="11">
-        <v>9</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="12">
-        <v>53</v>
-      </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C56"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="4">
-        <v>3</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="4">
-        <v>8</v>
-      </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="27"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="15"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="11">
-        <v>9</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="26"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="12">
-        <v>53</v>
-      </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="27"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="G9:L11"/>
-    <mergeCell ref="G4:L5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G12:L14"/>
-    <mergeCell ref="G15:L16"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="G18:L21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C26:C27"/>
+  <mergeCells count="113">
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E42:E43"/>
@@ -2291,6 +2428,63 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="I9:N11"/>
+    <mergeCell ref="I4:N5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="I12:N14"/>
+    <mergeCell ref="I15:N16"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="I18:N21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA7DD6E-E73A-4D62-A2FD-C7B3FD3B5EC0}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,32 +2506,38 @@
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="46">
+    </row>
+    <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="48">
         <v>20</v>
       </c>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="22"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="48"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="48"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/customDiceOutcomes.xlsx
+++ b/customDiceOutcomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thias\Documents\GitHub\wildmagic-roller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thias\Documents\GitHub\sharp-roller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D82636-8A2A-4A6A-837E-B13F769DAC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229EAC42-7102-4649-9368-2DB0E4A68528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diceOutcomes" sheetId="1" r:id="rId1"/>
@@ -166,13 +166,13 @@
     <t>GoTo x times</t>
   </si>
   <si>
-    <t>DM Decides?</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>Maximum number of rolls, without user input (Program might be caught in a loop):</t>
+  </si>
+  <si>
+    <t>Choose?</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -892,54 +892,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -949,36 +968,12 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1343,7 +1338,7 @@
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,11 +1374,11 @@
       <c r="E1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1393,17 +1388,17 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1412,24 +1407,24 @@
       <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="C4" s="12"/>
       <c r="D4" s="16"/>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="38"/>
       <c r="P4" s="14" t="s">
         <v>37</v>
       </c>
@@ -1442,14 +1437,14 @@
       <c r="S4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="47" t="s">
-        <v>44</v>
+      <c r="V4" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1459,38 +1454,38 @@
       <c r="B5" s="10">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
       <c r="P5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1499,11 +1494,11 @@
       <c r="B6" s="11">
         <v>20</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1516,22 +1511,19 @@
       <c r="Q6" s="3">
         <v>10</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="C7" s="12"/>
       <c r="D7" s="16"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
       <c r="V7" s="16"/>
     </row>
     <row r="8" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1541,15 +1533,15 @@
       <c r="B8" s="3">
         <v>21</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1564,13 +1556,13 @@
       <c r="Q8" s="10">
         <v>11</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
     </row>
     <row r="9" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1579,47 +1571,44 @@
       <c r="B9" s="3">
         <v>30</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="I9" s="23" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="I9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
       <c r="P9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q9" s="11">
         <v>20</v>
       </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
     </row>
     <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="C10" s="12"/>
       <c r="D10" s="16"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="12"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
       <c r="V10" s="16"/>
     </row>
     <row r="11" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,34 +1618,34 @@
       <c r="B11" s="3">
         <v>31</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
       <c r="P11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q11" s="3">
         <v>21</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
     </row>
     <row r="12" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1665,47 +1654,44 @@
       <c r="B12" s="3">
         <v>40</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="I12" s="26" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="I12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
       <c r="P12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q12" s="3">
         <v>39</v>
       </c>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
     </row>
     <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="C13" s="12"/>
       <c r="D13" s="16"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="35"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="44"/>
+      <c r="R13" s="12"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,35 +1701,35 @@
       <c r="B14" s="3">
         <v>41</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="35"/>
       <c r="P14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>40</v>
       </c>
-      <c r="R14" s="19" t="s">
+      <c r="R14" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42" t="s">
-        <v>45</v>
+      <c r="S14" s="42"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1753,41 +1739,41 @@
       <c r="B15" s="3">
         <v>50</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="I15" s="26" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="I15" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
       <c r="P15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>40</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="C16" s="12"/>
       <c r="D16" s="16"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1796,15 +1782,15 @@
       <c r="B17" s="3">
         <v>51</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -1813,30 +1799,30 @@
       <c r="B18" s="3">
         <v>60</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="I18" s="38" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="I18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="C19" s="12"/>
       <c r="D19" s="16"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -1845,21 +1831,21 @@
       <c r="B20" s="3">
         <v>61</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1868,17 +1854,17 @@
       <c r="B21" s="3">
         <v>70</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
@@ -1892,15 +1878,15 @@
       <c r="B23" s="3">
         <v>71</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1909,11 +1895,11 @@
       <c r="B24" s="3">
         <v>80</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
@@ -1927,15 +1913,15 @@
       <c r="B26" s="3">
         <v>81</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1944,11 +1930,11 @@
       <c r="B27" s="3">
         <v>90</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
@@ -1962,17 +1948,17 @@
       <c r="B29" s="3">
         <v>91</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -1981,11 +1967,11 @@
       <c r="B30" s="3">
         <v>100</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -2005,14 +1991,14 @@
       <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="45" t="s">
-        <v>44</v>
+      <c r="G33" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2022,17 +2008,17 @@
       <c r="B34" s="3">
         <v>5</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -2041,11 +2027,11 @@
       <c r="B35" s="3">
         <v>10</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
@@ -2059,17 +2045,17 @@
       <c r="B37" s="10">
         <v>11</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -2078,11 +2064,11 @@
       <c r="B38" s="11">
         <v>20</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" s="12"/>
@@ -2103,14 +2089,14 @@
       <c r="D41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="45" t="s">
-        <v>44</v>
+      <c r="G41" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2120,17 +2106,17 @@
       <c r="B42" s="3">
         <v>3</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -2139,11 +2125,11 @@
       <c r="B43" s="3">
         <v>8</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
@@ -2157,17 +2143,17 @@
       <c r="B45" s="10">
         <v>9</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -2176,11 +2162,11 @@
       <c r="B46" s="11">
         <v>53</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47"/>
@@ -2201,14 +2187,14 @@
       <c r="D49" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="45" t="s">
-        <v>44</v>
+      <c r="G49" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2218,15 +2204,15 @@
       <c r="B50" s="3">
         <v>3</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -2235,11 +2221,11 @@
       <c r="B51" s="3">
         <v>8</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
@@ -2253,15 +2239,15 @@
       <c r="B53" s="10">
         <v>9</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -2270,11 +2256,11 @@
       <c r="B54" s="11">
         <v>53</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C55"/>
@@ -2295,14 +2281,14 @@
       <c r="D57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G57" s="45" t="s">
-        <v>44</v>
+      <c r="G57" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2312,15 +2298,15 @@
       <c r="B58" s="3">
         <v>3</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -2329,11 +2315,11 @@
       <c r="B59" s="3">
         <v>8</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
@@ -2347,15 +2333,15 @@
       <c r="B61" s="10">
         <v>9</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -2364,72 +2350,44 @@
       <c r="B62" s="11">
         <v>53</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="I9:N11"/>
-    <mergeCell ref="I4:N5"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C34:C35"/>
@@ -2451,40 +2409,68 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="I9:N11"/>
+    <mergeCell ref="I4:N5"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D26:D27"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2515,23 +2501,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>46</v>
+      <c r="A2" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="48">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="48"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="48"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="48"/>
     </row>
   </sheetData>
